--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>413418.1463002111</v>
+        <v>459482.71281985</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12541457.66185159</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043044</v>
+        <v>7722227.211598416</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9163921.010886354</v>
+        <v>9111986.142700549</v>
       </c>
     </row>
     <row r="11">
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>165.1725371760947</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714232</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>138.2613113589524</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>28.07357741546448</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663202</v>
+        <v>101.26848603947</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8072380324136</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663203</v>
+        <v>137.3982828274878</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663203</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368126</v>
+        <v>15.8745106541563</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663203</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714232</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663203</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663203</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663203</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2613113589526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.039384816041505</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>165.1725371760949</v>
+        <v>140.8625766198462</v>
       </c>
       <c r="U7" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W7" t="n">
-        <v>187.5255871663203</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X7" t="n">
-        <v>187.5255871663203</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.396723986041543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>28.57158826968427</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>138.2613113589521</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>29.00708539155863</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V10" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W10" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>191.0686326199096</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>200.5242542195611</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>102.0289410960645</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>133.9047987852787</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>70.81825623187109</v>
+        <v>24.14763241892861</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>3.025494255481478</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>135.4334972246866</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>315.9850504895612</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1900,19 +1900,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>373.3886011363418</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>109.3235974497386</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>104.3806311668398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>276.4896811987715</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>35.21134837541673</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>54.92606983771172</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>72.57171105915143</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2377,16 +2377,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.1564825271694</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2493,7 +2493,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>38.81758817917237</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>91.11971635671405</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>134.9249912545473</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>375.5601231038225</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>104.5702261485542</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,10 +2772,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>147.0633545968144</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>211.0785184722385</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>125.896477052185</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>14.20188851094916</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0.2668480797626705</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>211.1568521455546</v>
       </c>
       <c r="C32" t="n">
-        <v>329.9564011125112</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>118.5820010038377</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>201.2322393582076</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>175.5903906093057</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.6898441249709</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>55.46893682915123</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>46.36893455027671</v>
+        <v>249.1524003704183</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.4223484152694</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>88.71883721364161</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>174.9123239800305</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>208.6902559978744</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>124.6486541257154</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3954,16 +3954,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>140.1996960751715</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>179.0497556307032</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>219.1834685212291</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>183.0172251110624</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>235.9955072668619</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487957</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U2" t="n">
-        <v>393.8416170062758</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="V2" t="n">
-        <v>204.4218319897907</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="W2" t="n">
-        <v>15.00204697330562</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>431.9158668530686</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>550.1875401335673</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>722.919292284329</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>583.2614020227609</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T3" t="n">
-        <v>583.2614020227609</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062758</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897907</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="W3" t="n">
-        <v>15.00204697330562</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594235</v>
+        <v>41.00116956031049</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745586</v>
+        <v>43.3794379086462</v>
       </c>
       <c r="M4" t="n">
-        <v>447.3950989318193</v>
+        <v>188.7570977864677</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264764</v>
+        <v>334.1347576642893</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608029</v>
+        <v>479.5124175421108</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S4" t="n">
-        <v>560.6825636487957</v>
+        <v>485.0930843149658</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487957</v>
+        <v>485.0930843149658</v>
       </c>
       <c r="U4" t="n">
-        <v>560.6825636487957</v>
+        <v>336.763669073846</v>
       </c>
       <c r="V4" t="n">
-        <v>371.2627786323106</v>
+        <v>188.4342538327261</v>
       </c>
       <c r="W4" t="n">
-        <v>181.8429936158256</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="X4" t="n">
-        <v>181.8429936158256</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.8429936158256</v>
+        <v>40.10483859160627</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8416170062759</v>
+        <v>320.5958360811352</v>
       </c>
       <c r="C5" t="n">
-        <v>393.8416170062759</v>
+        <v>320.5958360811352</v>
       </c>
       <c r="D5" t="n">
-        <v>393.8416170062759</v>
+        <v>320.5958360811352</v>
       </c>
       <c r="E5" t="n">
-        <v>393.8416170062759</v>
+        <v>320.5958360811352</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897907</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>13.34259413586628</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>64.08111238184313</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079186</v>
+        <v>163.928492730605</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644759</v>
+        <v>306.6973793432473</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123835</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985593</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020278</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652811</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>738.6222485201484</v>
+        <v>651.0948475466911</v>
       </c>
       <c r="S5" t="n">
-        <v>738.6222485201484</v>
+        <v>489.0629337562144</v>
       </c>
       <c r="T5" t="n">
-        <v>738.6222485201484</v>
+        <v>489.0629337562144</v>
       </c>
       <c r="U5" t="n">
-        <v>738.6222485201484</v>
+        <v>489.0629337562144</v>
       </c>
       <c r="V5" t="n">
-        <v>738.6222485201484</v>
+        <v>489.0629337562144</v>
       </c>
       <c r="W5" t="n">
-        <v>738.6222485201484</v>
+        <v>489.0629337562144</v>
       </c>
       <c r="X5" t="n">
-        <v>738.6222485201484</v>
+        <v>489.0629337562144</v>
       </c>
       <c r="Y5" t="n">
-        <v>549.2024635036634</v>
+        <v>320.5958360811352</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024228</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772652</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140249</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546608</v>
+        <v>476.9208474646505</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476356</v>
+        <v>604.5841099877839</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017075</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652811</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R6" t="n">
-        <v>722.9192922843292</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S6" t="n">
-        <v>722.9192922843292</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="T6" t="n">
-        <v>722.9192922843292</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="U6" t="n">
-        <v>533.4995072678441</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="V6" t="n">
-        <v>344.079722251359</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="W6" t="n">
-        <v>154.6599372348739</v>
+        <v>161.728413768076</v>
       </c>
       <c r="X6" t="n">
-        <v>154.6599372348739</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>88.85718952202731</v>
+        <v>101.3520233773647</v>
       </c>
       <c r="L7" t="n">
-        <v>261.7447676371625</v>
+        <v>266.4666258087099</v>
       </c>
       <c r="M7" t="n">
-        <v>447.3950989318195</v>
+        <v>277.4198890189939</v>
       </c>
       <c r="N7" t="n">
-        <v>633.0454302264766</v>
+        <v>397.022822616492</v>
       </c>
       <c r="O7" t="n">
-        <v>634.3723839608032</v>
+        <v>555.2552294678668</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652811</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q7" t="n">
-        <v>750.1023486652811</v>
+        <v>661.0293180902414</v>
       </c>
       <c r="R7" t="n">
-        <v>750.1023486652811</v>
+        <v>661.0293180902414</v>
       </c>
       <c r="S7" t="n">
-        <v>750.1023486652811</v>
+        <v>661.0293180902414</v>
       </c>
       <c r="T7" t="n">
-        <v>583.261402022761</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="U7" t="n">
-        <v>393.8416170062759</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="V7" t="n">
-        <v>393.8416170062759</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="W7" t="n">
-        <v>204.4218319897907</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.8416170062752</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="C8" t="n">
-        <v>393.8416170062752</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="D8" t="n">
-        <v>393.8416170062752</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062752</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F8" t="n">
-        <v>393.8416170062752</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R8" t="n">
-        <v>743.6410113056419</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S8" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T8" t="n">
-        <v>393.8416170062752</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U8" t="n">
-        <v>393.8416170062752</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="V8" t="n">
-        <v>393.8416170062752</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="W8" t="n">
-        <v>393.8416170062752</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="X8" t="n">
-        <v>393.8416170062752</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="Y8" t="n">
-        <v>393.8416170062752</v>
+        <v>181.8429936158256</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>192.7966468059551</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>192.7966468059551</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.86223714470387</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
         <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843279</v>
+        <v>722.919292284329</v>
       </c>
       <c r="S9" t="n">
-        <v>722.9192922843279</v>
+        <v>571.6362168389253</v>
       </c>
       <c r="T9" t="n">
-        <v>722.9192922843279</v>
+        <v>382.2164318224402</v>
       </c>
       <c r="U9" t="n">
-        <v>533.499507267843</v>
+        <v>382.2164318224402</v>
       </c>
       <c r="V9" t="n">
-        <v>344.0797222513582</v>
+        <v>382.2164318224402</v>
       </c>
       <c r="W9" t="n">
-        <v>154.6599372348734</v>
+        <v>382.2164318224402</v>
       </c>
       <c r="X9" t="n">
-        <v>15.0020469733056</v>
+        <v>192.7966468059551</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.0020469733056</v>
+        <v>192.7966468059551</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.0020469733056</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0020469733056</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0020469733056</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0020469733056</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594235</v>
       </c>
       <c r="L10" t="n">
-        <v>187.8896250884407</v>
+        <v>216.0634826394166</v>
       </c>
       <c r="M10" t="n">
-        <v>373.5399563830974</v>
+        <v>401.7138139340736</v>
       </c>
       <c r="N10" t="n">
-        <v>559.1902876777542</v>
+        <v>587.3641452287306</v>
       </c>
       <c r="O10" t="n">
-        <v>721.9284911143044</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q10" t="n">
-        <v>750.1023486652798</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="R10" t="n">
-        <v>750.1023486652798</v>
+        <v>612.5614882768605</v>
       </c>
       <c r="S10" t="n">
-        <v>750.1023486652798</v>
+        <v>612.5614882768605</v>
       </c>
       <c r="T10" t="n">
-        <v>560.6825636487949</v>
+        <v>612.5614882768605</v>
       </c>
       <c r="U10" t="n">
-        <v>393.8416170062752</v>
+        <v>423.1417032603754</v>
       </c>
       <c r="V10" t="n">
-        <v>204.4218319897904</v>
+        <v>233.7219182438903</v>
       </c>
       <c r="W10" t="n">
-        <v>15.0020469733056</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="X10" t="n">
-        <v>15.0020469733056</v>
+        <v>44.30213322740525</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0020469733056</v>
+        <v>44.30213322740525</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.583838282732</v>
+        <v>1678.810379831283</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1678.810379831283</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>1320.544681224532</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>934.756428626288</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>523.7705238366805</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218346</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2612.501248106872</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3005.546484356407</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609173</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136268</v>
+        <v>3200.225838528231</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136268</v>
+        <v>2994.194385163529</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410104</v>
+        <v>2994.194385163529</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066533</v>
+        <v>2994.194385163529</v>
       </c>
       <c r="W11" t="n">
-        <v>2630.721789066533</v>
+        <v>2641.425729893415</v>
       </c>
       <c r="X11" t="n">
-        <v>2630.721789066533</v>
+        <v>2267.959971632335</v>
       </c>
       <c r="Y11" t="n">
-        <v>2240.582457090722</v>
+        <v>2065.410219895405</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142894</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331625</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9281613719111</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6907063664555</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1561483933406</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218346</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>396.510659118347</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>761.8119001858311</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2398.009445431869</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2554.82975395794</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.82975395794</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942936</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990497</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264788</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304844</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099311</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.7003711548128</v>
+        <v>685.0077643777234</v>
       </c>
       <c r="C13" t="n">
-        <v>561.7003711548128</v>
+        <v>516.0715814498166</v>
       </c>
       <c r="D13" t="n">
-        <v>458.6408346941416</v>
+        <v>516.0715814498166</v>
       </c>
       <c r="E13" t="n">
-        <v>310.7277411117485</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218346</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>314.3177428179429</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>630.0756374886839</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>973.3871879897964</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.49254089413</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415547</v>
+        <v>1699.861054503352</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.594608541191</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.910120335304</v>
+        <v>1156.073399244924</v>
       </c>
       <c r="W13" t="n">
-        <v>782.492950298343</v>
+        <v>866.6562292079632</v>
       </c>
       <c r="X13" t="n">
-        <v>782.492950298343</v>
+        <v>866.6562292079632</v>
       </c>
       <c r="Y13" t="n">
-        <v>561.7003711548128</v>
+        <v>866.6562292079632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1944.904841306683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>2331.504681370805</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y14" t="n">
-        <v>2331.504681370805</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>628.7269654071711</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C16" t="n">
-        <v>628.7269654071711</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D16" t="n">
-        <v>628.7269654071711</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E16" t="n">
-        <v>480.8138718247779</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1513.842048484845</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1259.157560278958</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1259.157560278958</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>1031.168009380941</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y16" t="n">
-        <v>810.3754302374108</v>
+        <v>507.5323442946291</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2249.271807195286</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1880.309290254874</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1522.043591648124</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1136.255339049879</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>725.269434260272</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X17" t="n">
-        <v>2635.871647259408</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y17" t="n">
-        <v>2635.871647259408</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381.1049005553748</v>
+        <v>492.7661230698578</v>
       </c>
       <c r="C19" t="n">
-        <v>381.1049005553748</v>
+        <v>323.8299401419509</v>
       </c>
       <c r="D19" t="n">
-        <v>381.1049005553748</v>
+        <v>323.8299401419509</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>323.8299401419509</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>176.9399926440406</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5703,22 +5703,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V19" t="n">
-        <v>1119.304200633883</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W19" t="n">
-        <v>829.8870305969223</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X19" t="n">
-        <v>601.8974796989049</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y19" t="n">
-        <v>381.1049005553748</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1458.811090838975</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
-        <v>1089.848573898563</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>731.582875291813</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>345.7946226935688</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>345.7946226935688</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3290.038803048144</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3084.061055432366</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410103</v>
+        <v>3084.061055432366</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410103</v>
+        <v>2752.998168088795</v>
       </c>
       <c r="W20" t="n">
-        <v>2609.016021139988</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X20" t="n">
-        <v>2235.550262878909</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y20" t="n">
-        <v>1845.410930903097</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.189385922801</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5846,37 +5846,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>752.7622949738579</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C22" t="n">
-        <v>583.826112045951</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D22" t="n">
-        <v>583.826112045951</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>435.9130184635579</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5940,22 +5940,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882606</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.192889845645</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X22" t="n">
-        <v>1155.203338947628</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y22" t="n">
-        <v>934.4107598040977</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1930.094988518961</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C23" t="n">
-        <v>1561.13247157855</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="D23" t="n">
-        <v>1202.866772971799</v>
+        <v>525.6051276760352</v>
       </c>
       <c r="E23" t="n">
-        <v>817.078520373555</v>
+        <v>139.8168750777909</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>139.8168750777909</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W23" t="n">
-        <v>2535.034709923658</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X23" t="n">
-        <v>2535.034709923658</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y23" t="n">
-        <v>2316.694828583083</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="24">
@@ -6059,31 +6059,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>553.2677753977071</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C25" t="n">
-        <v>384.3315924698002</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>273.4246380869315</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>273.4246380869315</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>273.4246380869315</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>105.7218014616505</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6177,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1835.254430556458</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1546.151563682102</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>1291.467075476215</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>1002.049905439255</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>774.0603545412372</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>553.2677753977071</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2123.189610021303</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C26" t="n">
-        <v>1754.227093080891</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="E26" t="n">
         <v>1232.150970528558</v>
@@ -6223,55 +6223,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267229</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W26" t="n">
-        <v>2513.328941997114</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X26" t="n">
-        <v>2513.328941997114</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y26" t="n">
-        <v>2123.189610021303</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>785.9944709118752</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>617.0582879839683</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
-        <v>466.9416485716325</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>319.0285549892394</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>172.1386074913291</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>1416.425065783662</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>1416.425065783662</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>1188.435514885645</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>967.6429357421149</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6475,16 +6475,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
@@ -6493,16 +6493,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267228</v>
+        <v>3112.395196889737</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923657</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653543</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X29" t="n">
         <v>2055.097896014972</v>
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6560,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>249.793641290342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>80.85745836243507</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6642,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621292</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>880.2242361621292</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>652.2346852641118</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y31" t="n">
-        <v>431.4421061205817</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1565.4402645816</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1232.150970528558</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.60582160917</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176916</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.505862906802</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X32" t="n">
-        <v>1952.040104645722</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="Y32" t="n">
-        <v>1952.040104645722</v>
+        <v>2218.876689164175</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>532.4548862703364</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>363.5187033424295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4020639300937</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300937</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621292</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W34" t="n">
-        <v>880.2242361621292</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X34" t="n">
-        <v>652.2346852641118</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y34" t="n">
-        <v>652.2346852641118</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1767.878520285688</v>
+        <v>2120.647175555803</v>
       </c>
       <c r="C35" t="n">
-        <v>1398.916003345276</v>
+        <v>1751.684658615392</v>
       </c>
       <c r="D35" t="n">
-        <v>1040.650304738526</v>
+        <v>1393.418960008641</v>
       </c>
       <c r="E35" t="n">
-        <v>654.8620521402815</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>243.876147350674</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>243.876147350674</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6949,40 +6949,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X35" t="n">
-        <v>2158.0178522615</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y35" t="n">
-        <v>1767.878520285688</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7034,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218339</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218339</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218339</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218339</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7125,22 +7125,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610488</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046014</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676408</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696235</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.8553933260934</v>
+        <v>846.3749096777597</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1308.370295943748</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="C38" t="n">
-        <v>939.4077790033366</v>
+        <v>1888.29351386504</v>
       </c>
       <c r="D38" t="n">
-        <v>939.4077790033366</v>
+        <v>1530.02781525829</v>
       </c>
       <c r="E38" t="n">
-        <v>939.4077790033366</v>
+        <v>1144.239562660045</v>
       </c>
       <c r="F38" t="n">
-        <v>528.4218742137291</v>
+        <v>733.2536578704378</v>
       </c>
       <c r="G38" t="n">
-        <v>113.3494240587256</v>
+        <v>318.1812077154343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>2257.256030805452</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>363.5187033424295</v>
+        <v>492.7661230698578</v>
       </c>
       <c r="C40" t="n">
-        <v>363.5187033424295</v>
+        <v>323.8299401419509</v>
       </c>
       <c r="D40" t="n">
-        <v>213.4020639300938</v>
+        <v>323.8299401419509</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W40" t="n">
-        <v>872.3234075408147</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X40" t="n">
-        <v>644.3338566427974</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.5412774992673</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1032.061124352531</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>663.098607412119</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>663.098607412119</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>277.3103548138748</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>277.3103548138748</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653544</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392464</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y41" t="n">
-        <v>1418.660964416652</v>
+        <v>2182.266054653545</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7496,16 +7496,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.3679798527295</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="C43" t="n">
-        <v>511.4317969248226</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="E43" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7602,19 +7602,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1372.22619386346</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V43" t="n">
-        <v>1372.22619386346</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W43" t="n">
-        <v>1082.809023826499</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.809023826499</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y43" t="n">
-        <v>862.0164446829692</v>
+        <v>520.9582602004501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1501.213961756482</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C44" t="n">
-        <v>1501.213961756482</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2277.953133796416</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>1887.813801820604</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.4780323548191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1742.428664137924</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1453.325797263567</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1453.325797263567</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>1163.908627226606</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>935.919076328589</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>715.1264971850588</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,19 +8139,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>51.27792755666312</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>153.3759016847023</v>
+        <v>141.0220468163144</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>133.2236354305729</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>154.781822354183</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,19 +8376,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>88.70546398364631</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>159.4104580922942</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457087</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711119</v>
+        <v>102.0733218168279</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>98.29368706161306</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>46.56605103777609</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368126</v>
+        <v>20.55555711582394</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988657</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>85.99672338893558</v>
+        <v>121.8389014165097</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038147</v>
+        <v>180.9061373814263</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510928</v>
+        <v>202.3948476287044</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>222.8849795897604</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>51.47395949496051</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.77141835213727</v>
       </c>
       <c r="S3" t="n">
-        <v>11.50893333199716</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>66.38305545459011</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377072</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310506</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945994</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>58.92686411476885</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.65944300584255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553079</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845744</v>
+        <v>8.838436914954045</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>19.254668629176</v>
+        <v>106.655466970086</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>139.422540051734</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750779</v>
+        <v>105.2915222351194</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027079</v>
+        <v>139.6768772478824</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.926603631067</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753912</v>
+        <v>269.4777629142236</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637378</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897333</v>
+        <v>219.4555119577252</v>
       </c>
     </row>
     <row r="6">
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550655</v>
+        <v>50.10118934773676</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.29588533250677</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377066</v>
+        <v>59.08386854792602</v>
       </c>
       <c r="V6" t="n">
-        <v>45.274999983105</v>
+        <v>66.01816045109686</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459934</v>
+        <v>84.9125564625912</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>58.87102376758989</v>
       </c>
       <c r="Y6" t="n">
-        <v>67.42138441835175</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553079</v>
+        <v>25.71029132565417</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845744</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>58.54713631400523</v>
+        <v>82.99467826660961</v>
       </c>
       <c r="U7" t="n">
-        <v>98.73949432713002</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>85.35521662549959</v>
       </c>
       <c r="W7" t="n">
-        <v>98.99741117027074</v>
+        <v>119.7405716382626</v>
       </c>
       <c r="X7" t="n">
-        <v>38.18406822271689</v>
+        <v>58.92722869070874</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445882</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.968575157639798</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988683</v>
+        <v>25.91829388988657</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871012</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121488</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23105,10 +23105,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>129.0734921857167</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23120,7 +23120,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>67.51167384452538</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>116.4139626313726</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632378014</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>121.0925443173558</v>
+        <v>98.73949432713007</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750805</v>
+        <v>64.61205615750779</v>
       </c>
       <c r="W10" t="n">
-        <v>98.99741117027105</v>
+        <v>98.99741117027079</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>191.665209043571</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>185.7136844364925</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.58653192214781</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>12.52916386129047</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>298.9128444465979</v>
+        <v>345.5834682595404</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>142.3955537674498</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>83.1511561274082</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>94.93667516389223</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>12.84933751971181</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>56.70221080928965</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>147.7570121569882</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>134.4320444546819</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>73.97641341275911</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>90.49497818521952</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24180,10 +24180,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>338.350014594302</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>170.0814561288842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>105.9374267351484</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24417,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>128.4292329194552</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>219.7580503661357</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.37024696843929</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>61.45558211047404</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>39.91665348666345</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>243.834623626284</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>134.4135845072632</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.4428073092745</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>171.576989517926</v>
       </c>
       <c r="C32" t="n">
-        <v>35.31649065849632</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.24997917809962</v>
+        <v>16.14213605696642</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>180.6981307140541</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>119.0173737780148</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696639</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>170.2407185598859</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>248.2388298370437</v>
+        <v>45.45536401690214</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>120.4096317666679</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>57.71512543292756</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>207.8215176834501</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>202.231469655579</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>21.78530852085373</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>146.0121421304414</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>175.6332859899797</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>191.7382571322243</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>36.53172416510679</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>480321.4544660317</v>
+        <v>446453.471193413</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>480321.4544660319</v>
+        <v>462998.2110595118</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>480321.4544660314</v>
+        <v>480321.4544660318</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896351.5607645914</v>
+        <v>894765.5924020971</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896351.5607645913</v>
+        <v>896351.5607645914</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896351.5607645912</v>
+        <v>896351.5607645911</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896351.560764591</v>
+        <v>896351.5607645911</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>896351.5607645913</v>
+        <v>896351.5607645911</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896351.5607645911</v>
+        <v>896351.5607645913</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896351.560764591</v>
+        <v>896351.5607645911</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162397.4547967405</v>
+        <v>150913.5375162088</v>
       </c>
       <c r="C2" t="n">
-        <v>162397.4547967405</v>
+        <v>156563.0300299675</v>
       </c>
       <c r="D2" t="n">
         <v>162397.4547967404</v>
       </c>
       <c r="E2" t="n">
+        <v>306285.7463411666</v>
+      </c>
+      <c r="F2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="G2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="H2" t="n">
         <v>306897.3890738287</v>
       </c>
-      <c r="F2" t="n">
-        <v>306897.3890738286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>306897.3890738287</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>306897.3890738288</v>
       </c>
-      <c r="I2" t="n">
-        <v>306897.3890738286</v>
-      </c>
       <c r="J2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="K2" t="n">
         <v>306897.3890738287</v>
       </c>
       <c r="L2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="M2" t="n">
         <v>306897.3890738288</v>
       </c>
       <c r="N2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="O2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="P2" t="n">
         <v>306897.3890738286</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340651</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679112</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.643633668</v>
+        <v>623601.8614813616</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3449.010472953472</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>38421.40650613408</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136536</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004349</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>159533.7799986349</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>906.8265503282652</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11335.86481693335</v>
+        <v>10608.36731631682</v>
       </c>
       <c r="C4" t="n">
-        <v>11335.86481693336</v>
+        <v>10849.63882917329</v>
       </c>
       <c r="D4" t="n">
         <v>11335.86481693335</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710377</v>
+        <v>10558.76396175957</v>
       </c>
       <c r="F4" t="n">
         <v>10380.34706710378</v>
@@ -26444,13 +26444,13 @@
         <v>10380.34706710378</v>
       </c>
       <c r="K4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="L4" t="n">
         <v>10380.3470671038</v>
       </c>
       <c r="M4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="N4" t="n">
         <v>10380.34706710378</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>53719.1197790209</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55335.34872138573</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161359</v>
       </c>
-      <c r="C5" t="n">
-        <v>56985.80041161359</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56985.80041161358</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74015.36825377261</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26493,16 +26493,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="K5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="L5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-508785.0763772182</v>
+        <v>-457283.5804371632</v>
       </c>
       <c r="C6" t="n">
-        <v>82571.82614362761</v>
+        <v>65874.77793261882</v>
       </c>
       <c r="D6" t="n">
-        <v>82571.82614362783</v>
+        <v>71189.55236894578</v>
       </c>
       <c r="E6" t="n">
-        <v>-408400.1314863975</v>
+        <v>-402241.2643007147</v>
       </c>
       <c r="F6" t="n">
-        <v>218734.5121472708</v>
+        <v>218414.0720425721</v>
       </c>
       <c r="G6" t="n">
-        <v>218734.5121472706</v>
+        <v>221863.0825155256</v>
       </c>
       <c r="H6" t="n">
-        <v>218734.5121472706</v>
+        <v>221863.0825155255</v>
       </c>
       <c r="I6" t="n">
-        <v>218734.5121472705</v>
+        <v>221863.0825155256</v>
       </c>
       <c r="J6" t="n">
-        <v>169669.567418726</v>
+        <v>183441.6760093915</v>
       </c>
       <c r="K6" t="n">
-        <v>218734.5121472708</v>
+        <v>216732.115413389</v>
       </c>
       <c r="L6" t="n">
-        <v>218734.5121472706</v>
+        <v>216613.1752895212</v>
       </c>
       <c r="M6" t="n">
-        <v>58278.07027939319</v>
+        <v>62329.30251689072</v>
       </c>
       <c r="N6" t="n">
-        <v>218734.5121472706</v>
+        <v>220956.2559651973</v>
       </c>
       <c r="O6" t="n">
-        <v>218734.5121472705</v>
+        <v>221863.0825155256</v>
       </c>
       <c r="P6" t="n">
-        <v>218734.5121472708</v>
+        <v>221863.0825155254</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>512.0768631572208</v>
+      </c>
+      <c r="C3" t="n">
+        <v>530.6136320241912</v>
+      </c>
+      <c r="D3" t="n">
         <v>548.4699409129049</v>
       </c>
-      <c r="C3" t="n">
-        <v>548.4699409129049</v>
-      </c>
-      <c r="D3" t="n">
-        <v>548.4699409129046</v>
-      </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>146.8461210887086</v>
+      </c>
+      <c r="C4" t="n">
+        <v>166.7824266983284</v>
+      </c>
+      <c r="D4" t="n">
         <v>187.5255871663202</v>
       </c>
-      <c r="C4" t="n">
-        <v>187.5255871663203</v>
-      </c>
-      <c r="D4" t="n">
-        <v>187.52558716632</v>
-      </c>
       <c r="E4" t="n">
-        <v>831.4014554022932</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697042</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871367</v>
       </c>
       <c r="E3" t="n">
-        <v>541.306759680394</v>
+        <v>538.2854662493816</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.021293431011827</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.7431604679918</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359733</v>
+        <v>640.1734322026726</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961944</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679918</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359733</v>
+        <v>640.1734322026728</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.70243603330016</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679918</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359733</v>
+        <v>640.1734322026726</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>171.5470783449032</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>197.1517779249663</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31691,31 +31691,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>37.57267093057298</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062408</v>
+        <v>29.54896956890283</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>169.4872848053139</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>108.9616836492158</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781481</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855745</v>
+        <v>63.17737051063609</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>74.60115408961786</v>
+        <v>88.89841337525095</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880153</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663203</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663203</v>
+        <v>120.8110440378769</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400609</v>
+        <v>159.8307139912877</v>
       </c>
       <c r="P7" t="n">
-        <v>116.8989542469473</v>
+        <v>113.0045225509564</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>92.63945645062408</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>110.4529028080739</v>
       </c>
       <c r="M10" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N10" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P10" t="n">
-        <v>28.45844197068223</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.19322646531248</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058223</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>318.9473683542839</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035353</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>77.93802322981087</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
